--- a/src/NGE_entire_series_lines.xlsx
+++ b/src/NGE_entire_series_lines.xlsx
@@ -760,14 +760,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>["Asuka:  So, which is the much-discussed Third Child?        Don't tell me it's THAT boy?", "Asuka:  That's not the only difference. After all, Units Zero and One         are prototypes, test models in the development process. The fact        that it synchronized with you, an untrained boy, is good proof        of that. However, Unit Two is not the same. This is a true        Evangelion, the first on Earth built for actual combat, the        final model.", "Asuka:  Don't peep, you jerk!        Why are boys such perverted idiots!", "Asuka:  Here I go--now you'll see how skillful my piloting is.        Just don't disturb me.", 'Asuka:  Idiot! Fine, stop trying. Switch the base thought language to        Japanese.', 'Asuka:  Greetings. I am Souryuu Asuka Langley.', "Asuka:  You are always depressed since morning.        It's I that is saying hello to you.        You must be glad at that.         And here must be one more ..", 'Asuka:  You silly boy!        I mean nothing but first children.     ', 'Asuka:  Hello! You are Ayanami Rei! The pilot of the prototype unit.        I am Asuka. Souryuu Asuka Langray, the pilot of Eva unit 2.        Please be a good friend of mine!', "Asuka: Although this is my first battle for debut in Japan,        How come I ain't allowed to battle alone.", "Asuka:  It's no fighter's manner to attack by two.         It's no my preference.", 'Asuka:  Did you see, third children!        Battle must always be elegant without waste.', 'Asuka:  Silly? How come you awkward guy can say that?        Too rude!', 'Asuka:  What was that? Something like floating corps in the sea!        dishonourable!', 'Asuka:  Misato is going to live with me.        Well, that choice is quite natural considering which is more        excellent. To tell the truth, I wanna live with Kaji-san..        Japanese style room is terrible small.        That is not enough for the half of my baggage.', 'Asuka:  And, why are Japanese people cautionless.        How come you can live in a room without lock. Unbelievable.', "Asuka:  That's matter of fact! It's impossible for me to become this        low level Shinji guy.", "Asuka:  Don't say nothing.        I know,, I know I must pilot Eva.        I do. I will do.", 'Asuka:  You are being too simplistic, although You are a man!        I must revenge for my spoilt pride!', 'Asuka:  If you invade across the wall, you shall be executed.        Child must go to bed right now!', "Asuka:  It's you that lost the timing first.        You are always dull!        What were you doing last night without sleaping!", "Asuka:  That's terrible! I meant as a joke! You really did it?        You kissed me?", 'Asuka:  Oh, you are an old man, out-of-date.        This kind a suit is quite common these days.', 'Asuka:  The school excursion is quite special!        We have to refresh!', 'Asuka:  O-Ki-Na-Wa!        Scuba-diving is scheduled.        ', 'Asuka:  hmmmm, Hey you. Stop drinking tea.        Say something against her.        You are a man!', "Asuka:  We always have to wait, wait wait wait!        We are always waiting for the enemy whom we cannot expect when        to come.        Don't you figure out where they are and attack them first.", "Asuka:  Phew! you stupid!        What's the school result!        I don't care about the exam with demerit mark method of old days.", 'Asuka:  Hey look!        Since I cannt do scuba diving at Okinawa, I dive here.', "Asuka:  hmm, let me see, what are you doing?        Can't you solve this kinda easy formula?        Ok, this is the solution.", "Asuka:  That's right. I have not mastered all Kanji.        I did not studied Kanji in the University there.", 'Asuka:  Yes. I graduated last year.        What is written here?', 'Asuka:  Thermo-expansion? how childish!        In short, things swell and get bigger when warmed,        And shrink and get smaller when cooled, you know.', 'Asuka:  Oh, this anti-heat plug suits has nothing different from the        normal one.', "Asuka:  Is that my Unit02?        No, I don't want to go.        I don't show myself before public.        Shinji will become this kind a job!", "Asuka:  Oh, no, I don't have that courage to show this badlooking appearence        to Kanji-san.", "Asuka:  mmmmm,        I don't allow you to touch my Unit02, Excuse me.        It's not First but I that go.        Be patient for the badlooking appearence.", "Asuka:  Present depth 170, Speed of descending 20. Every part no problem.        View sight is Zero. I can't see nothing.        Switch to CT monitor.        But the range of sight is 120.", 'Asuka:  Oh, asshole, I dropped knife!        Coming from front!        release ballasts.        Ra... Rapid!        Oh, no I lost the target from the sight.        Addition to that, bad view sight and very hot!        Suits is full of sweat and disgusting me.        Oh, no! worst!', 'Asuka:  Roger!        Shit! Have you dropped Shinji?', "Asuka:  No, don't come!        Hey, come on!        too late!", 'Asuka:  Anti-heat process!        Shit!', 'Asuka:  That one!        This guy!', 'Asuka:  WOW! gggggg        phew!', "Asuka:  I've done it but...         It's really over?", 'Asuka:  Phew, Shinji!        Stupid! You did too much!', 'Asuka:  Ouch!        Stupid! Where to throw! awkward guy!', "Asuka: For being a man, you had not better worry about such every   little detail, don't you think? ", 'Asuka: What are you doing? Hey, take my place. Hmm. Ah? Hmm, hmm,   hmm. Damn it! This must be broken! ', 'Asuka: Me, too. Neither the wire one nor the emergency line are out   of service. ', "Asuka: Good idea. Well, let's elect the leader of our group before we   get into action. ", "Asuka: Of course, I must be a leader. You have no objection, do you?   Let's go! ", 'Asuka: Ah! ', "Asuka: I'm the leader. Don't take the initiative without my   permission. ", "Asuka: You, an idiot? Unidentified guys are invading to us, you know.   It's natural that we have to deal with a lot of difficulties   coming unexpectedly down on our heads. ", "Asuka: Hey, come on! As I'm the leader, you had better just follow   me. ", "Asuka: What do you mean by 'as I expected'. You are always saying too   much! Ah! Look! I'm sure this time. ", "Asuka: (Deaa! Ii! Uh! Hii! Nnnn. Huh.) We checked the angel with the   naked eyes. Then we knew that we must hurry up, don't you think? ", "Asuka: You're a favorite with Commander Ikari, aren't you? An   excellent girl loved is different from us. ", "Asuka: I shouldn't trifle with First. She is the kind of person who   sticks at nothing to achieve her aims. She is what is called a   self-righteous one. ", 'Asuka: What? Oh! No! Uh!  ', "Asuka: I have a plan. Defense stays here, neutralizes AT field and   also protects Offense from Angel's solvent liquid. Backup go down,   picks up the dropped rifle and gives it to Offense. And then   Offense destroys the target by a salvo of the rifle. ", "Asuka: That's the reason. I feel funny unless I don't get even with   you at the last battle. Shinji is Offense. Excellent girl is   Backup. All right? ", "Asuka: I've got even with you. ", "Asuka: But I don't feel that the people live there. Look, I feel easy   with this. ", "Asuka : Hum , you aim at me , don't you. I'm changing clothes, if you        peep, I kill you.", "Asuka : Surely yes! Kaji-san is completely different from this clamp,        it's just like day and night.         It's insult to Kaji-san to compare him with.", 'Asuka : Does she really consider that the children now-a-days would         be glad at steak dinner?        How poorsome the people of the Second Impact Generations are!', 'Asuka : Anyhow , she is going to invite us.        Where to go?         You must come this time!', 'Asuka : I know the contents of your wallet. Take it easy.        The honor student told that she would come with us for Chinese noodle.', "Asuka : That's why you pilot?        Truly idiot!", 'Asuka:  Something is wrong with my senses.  Only the right arm is clear, and        the rest is dim.', 'Asuka:  Obviously.', "Asuka:  By the way, as for the two guys' unit compatibility test.        Don't I have to participate that?", 'Asuka:  Neither Misato nor Kaji-san tell me nothing.        Shinji knows nothing.        What kind a girl is FIRST ?', 'Asuka:          WOW, Help me Kaji-san! What are you doing to me.                Abnormal! AAAAAA!                Phew. ', "Asuka:          I've wanted Kaji-san to take me somewhere Sunday tomorrow.                And I phoned, though he's been absent for long.                These days, he's been always out.", "Asuka:          Yeah, with a MD student.                Oh, I've got it. Hey, may I use that? Your perfume of lavender.", "Asuka:          He's been shutting himself for long.                It seems that he doesn't wanna see his father.                If he hates, he must say he doesn't want that.                Japanese people are such a ..", 'Asuka:          Continuation is power.                I slightly think better of you.', 'Asuka:          It was not a fun to be with that boy.                So, I escaped while we were in the queue                for the roller coaster.', "Asuka:          You don't want to kiss a girl in the anniversary of                your mother's death?                You are afraid that your mother might watch us                from the heaven?", 'Asuka:          (gargling)                Phew! I regret to have done that only to kill time.                (gargling)', "Asuka:          Nothing matters. It's OK!                Hey! Kaji-san!", 'Asuka : Shinji,it seems you beg as a conditional reflex not to be scolded. ', "Asuka : You're optimistic to accept his lifestyle.        Lately,you're too soft on Shinji,aren't you?        ", "Asuka : You recovered the frendship with Kaji-san, but you shouldn't         give us your happiness.        ", "Asuka : I know I've never gone around together in such dirty relationship.        Heck, you pretend to show yourself as a guardian.        Hypocrytic! I hate that!!        --Motal disease   epiand             sode                16", "Asuka :I'm beaten!        He easily exceeds me!        'cause he did it such easily, to be frank, I feel a bit vexing.        Great,wonderful, strong, too strong!        huh! Undefeatable Shinji-sama!        Now that our job will be easier, won't it?        But, we have to do our best not to be left behind.        ", 'Asuka : Alright, sensei.        I think Shinji-kun must be the van.        ', 'Asuka : well,in any case,        This is a job for a man of good record, daring and the number         one of the Syncro-rate.         Or do you have no confidence,Shin-chan?         ', 'Asuka :Anachronistic!        Unit two, backup.        ', "Asuka :You know Eva can't move that fast.(Eva-02's umbilical cable is caught at the building. Asuka pueges cable and inserts another one to the back of Eva-02)", 'Asuka : Oh well,-        Acting arbitrarily without consultation, defying the operation.        It\'s the consequence of his own fault.        He made good result on yesterday\'s test,        though he said, "I\'ll show a good example", huh, what a         frivolous boy he is!        ', 'Asuka : Wh, What?        Does abusing Shinji makes you so unpleasant?        ', 'Asuka : This way you always think yourself bad!        That is "self-punishing."', 'Asuka:  hmmm, but You have a time to see Misato.        hm?        Oh!', "Asuka:  Wow, this is our syncro-data.        Oh, four persons?        What! What does this mean?        What made this guy the fourth children?        No, I don't understand, what's this?", "Asuka:  Don't warry, I'm with Shinji as duty, and I'm not in the mood to see         his face, too.        About Suzuhara, right?", 'Asuka:  That one is the dullest.  Also an idiot.  He does not know how to go        around with the others.', 'Asuka:  That girl knows how to get along with people ten thousandth as        well as Shinji.', 'Asuka:  Really!        May I ask a question?', 'Asuka:  No!  I want to smile pretty since you are staying with me for tonight.        But not today.  I cannot smile!', "Asuka:    It may be all up with him.          That idiot won't get by, I guess.", "Asuka:    He hasn't been injured, so he'll come around soon.          He'd be dreaming now.", "Asuka:    Here it comes.          Even though someone like Shinji is absent,          that's just a cinch for me alone.", "Asuka:    The AT field must have been neutralized.          Why it doesn't get done for?", 'Asuka:    Kugh, huhg...-          This damn SOB!', "Asuka: Evacuation exercise?        Are you idiot?        That's nothing to do with us pilots.", "Asuka: I know the woman is well! Misato, don't phone me for such a   trivial thing! ", 'Asuka: I could nothing... I was outdone by that stupid Shinji... How   vexing! ', "Asuka: You idiot! Unknown fellows come and attack against us, you   know. It's natural that we have to deal with a lot of difficulties   coming unexpectedly down on our heads. ", "Asuka: Hey, idiot Shinji. Do you want to become one with me? Do you   want us to become one both mentally and physically? That's so   comfortable. I'm saying like this. Come on! ", "Asuka : I don't take that call !   After all, maybe it's the call from Kaji-san          to Misato.  Misato should take that.", 'Asuka : Oh, I really regret that I made Unrivaled Shinji do such a              trivial job.', "Asuka : Hey, I don't like the formal way as he does. ", 'Asuka : Me  ?   From Mother ?   Hand me the phone !           Hello, Mutter,', "Asuka : Oh, it looks...          It's only superficial look.   She is not my true mother.", "Asuka : But, It doesn't mean I dislike her.          Only I feel a little uncomfortable with her.          Ah !  What's the hell, I tell you such a thing!", "Asuka : HOOOM !    It's the last day for me when I received a           sympathy from you !", 'Asuka : Why should I experience such an untorelable time because           I am female ?  I need no kids.                           ', 'Asuka : So you mean I am shutting myself ?  Me ? ', "Asuka : Haan !   Today is so special day as you, even from you, talked to          me.  Tomorrow maybe we will have snow.          Damn !  You are so delighted that I can't drive Eva ?          Don't worry.  when an Angel comes, the invincible Shinji will          defeat it.           Nothing we must do.           They just need only Shinji !           If Shinji is there, everything is OK.          A-ha !  It's the most terrible thong that not only Shinji, but adoll like          you sympathize with me.", "Asuka : Shut up !  You do anything as you're ordered.           You will kill yourself if Commander Ikari orders you to do so.", 'Asuka : After all, you are just a doll !           You have looked like a doll, and I have hated you from           long, long time ago.            Mmm, Heee !   I hate everyone !  Everyone  !', 'Asuka : You are just my doll.          So move as I order and don\'t say NO.          Why a weapon has the mind ?  Obstructive !          Anyway, you must say just " Yes " to my order.          Hum ?   Foolish !', 'Asuka : If I fail this mission, maybe I will lose the position           of Unit-2 pilot.   You must not make any mistake,           Asuka.', 'Asuka : Oh, hurry up, come here, you lazy Angel !           Your laziness irritate me !', "Asuka : Don't peep into my mind !--              Please !  Don't invade into my mind anymore.", "Asuka : No, Definitely, No !          If I must retreat, I'd rather die here.", 'Asuka : Why am I crying ?          I decided that I would not cry anymore.', "Asuka : I am not a baby.    I will be an adult earlier than          other people.  I don't need a huggy bear.", "Asuka : No !  Don't make me remember such a thing !           I wanted to forget, so don't dig my memory !           I don't want such a terrible memory.           Stop !  Stop !", "Asuka : Got dirty, my mind has.           Kaji-san, it's polluted.  What should I do !           My mind was polluted ! ", "Asuka : Shut up !   What you called OK ?          It's the most terrible thing that I was rescued by that          girl !   Rescued by that dammed girl !          I rather prefer to die than this.          I hate, hate, everyone, everything !", "Asuka:          I did not win with Eva.                I lost all my values at any places.                I hate, I really hate, I hate everybody,                though it's myself that I hate most.                I,,, now that I care nothing, I have nothing to do.", 'Asuka:          I am on board again as usual.                Oh, no, I am still attatched to this?', "Asuka:          Mom! Mom!                They selected ME!                I'm an elite pilot about to protect mankind.                No.1 in the world.                Secret to anybody.                But I tell you mom!                Everybody is so kind to me                that I ain't lonely.                I am OK though I don't have my father.                Look at me! Me!                Hey Mom!", "Asuka:          Syncro rate Zero.                I've no capacity to be the second children.                I've no reason to exist.                No one looks at me.                Neither daddy, mom, nor anybody [cares me].                No reason for me to live.", "Asuka:          You idiot?                After all, it's for the sake of oneself.", 'Asuka:          To think that you are doing your best for the sake of others                is itself an easy way to live.', "Asuka:          All you do is to wait for someone's giving you a happiness.                A false happiness.", 'Asuka:          WOW.--                        Soryuu Asuka Langray.                        In her case,', "Asuka:          I'm in Eva without my intention.                I'm forced to be in this.                This junk won't move!                Oh, no, it's me that is a junk.                Useless am I.                No one needs me.                No one needs the pilot who cannot pilot Eva.", 'Asuka:          Shut up!-                        Anxiety of separation.', 'Asuka:          So piloting.-                        Action of attatchment.', 'Asuka:          Shut up!-                        Action of attatchment.', "Asuka:          Shut up! Shut up!                I don't wanna be told that by a doll like you!--                        The third character-                        Ayanami Rei, in her case,", "Asuka:          Then, it's my mind within Shinji.-                        In the case of Soryuu Asuka Langray.                        Part 1", "Asuka:          I can live alone.                I don't need either daddy or mom.                I live alone.                I don't cry anymore.", 'Asuka:          Yet, I am crying.                Why am I crying?', "Asuka:          NO! STOP!                Don't quit being my mother!                I'm going to be a good child whom you'd love.                So, don't quit being my mother.                So, look at me!                Stop MOM, don't kill me!", 'Asuka:          Am I disturbing?                Am I useless?', "Asuka:          NO!                I'm not your doll.                I can think by myself, I can live by myself.", 'Asuka:          At that time, Mom was hung from the cealing.                She looked very happy.', "Asuka:          But I hate her face back then.                I don't wanna die.                I don't wanna let myself disappear.                I don't like boys.                I don't like daddy, mom.                I don't like anybody!                Nobody protects me.                Nobody is by me.-                        What does she wish?", "Asuka:          So do I live alone.                But I don't want that.                It's painful.                I don't wanna be alone.                I don't wanna be alone.                I don't wanna be alone!", 'Asuka:          The destruction, the death, the return to nothingness,                All of these did you wish.', 'Asuka:          We are trying to compliment                by the instrumentality of earch other.', 'Asuka:          And, when you lost Eva, you can do nothing, like me.                        Why pilotting Eva?', "Asuka:          Morning, the begining of today, the begining of                a bad day. I don't like that.", 'Asuka:          What do you need?                        Hate peace?', 'Asuka:          Do you love me?                        Your Mother,                        Do you love her?', 'Asuka:          Because I would disappear.                        So what?', "Asuka:          You idiot! That's matter of fact!                Nobody ever understands you.", 'Asuka:          Stupid Shinji!                You wake up now. Stupid Shinji!', 'Asuka:          You say "It\'s you Asuka?."                Everymorning, I come to wake you up not to be late                for school. Is that the word of gratitude to say to a                 childhood friend?', 'Asuka:          What a lazy guy! Wake up! Wake up imediately.                Oh! NO! You, mean stupid horny guy! Unbelievable!', 'Asuka:          Well, yes. This city will be the new capitol city                after the capitol transfer the next year.                The population is increasing.', "Asuka:          NO, Stop! Don't say such a thing.                It's you that showed to Shinji!", 'Shinji&amp;Asuka: This is forced by Misato-san, who insists that Japanese should        begin with form.', 'Shinji&amp;Asuka: This is forced by Misato-san, who insists that Japanese should        begin with form.', "Little Asuka : So, see me.                    Mama, please,  don't stop being my mother.", "Little Asuka : Mama, Mama, Please, Don't kill me.                    No !                    I am not a doll of Mama.                    I will think by myself, and  I will live by myself.                    I need not Daddy or Mama.                    I will live alone.", 'Shinji&amp;Asuka: This is forced by Misato-san, who insists that Japanese should        begin with form.']</t>
+          <t>["Asuka:  So, which is the much-discussed Third Child?        Don't tell me it's THAT boy?", "Asuka:  That's not the only difference. After all, Units Zero and One         are prototypes, test models in the development process. The fact        that it synchronized with you, an untrained boy, is good proof        of that. However, Unit Two is not the same. This is a true        Evangelion, the first on Earth built for actual combat, the        final model.", "Asuka:  Don't peep, you jerk!        Why are boys such perverted idiots!", "Asuka:  Here I go--now you'll see how skillful my piloting is.        Just don't disturb me.", 'Asuka:  Idiot! Fine, stop trying. Switch the base thought language to        Japanese.', 'Asuka:  Greetings. I am Souryuu Asuka Langley.', "Asuka:  You are always depressed since morning.        It's I that is saying hello to you.        You must be glad at that.         And here must be one more ..", 'Asuka:  You silly boy!        I mean nothing but first children.     ', 'Asuka:  Hello! You are Ayanami Rei! The pilot of the prototype unit.        I am Asuka. Souryuu Asuka Langray, the pilot of Eva unit 2.        Please be a good friend of mine!', "Asuka: Although this is my first battle for debut in Japan,        How come I ain't allowed to battle alone.", "Asuka:  It's no fighter's manner to attack by two.         It's no my preference.", 'Asuka:  Did you see, third children!        Battle must always be elegant without waste.', 'Asuka:  Silly? How come you awkward guy can say that?        Too rude!', 'Asuka:  What was that? Something like floating corps in the sea!        dishonourable!', 'Asuka:  Misato is going to live with me.        Well, that choice is quite natural considering which is more        excellent. To tell the truth, I wanna live with Kaji-san..        Japanese style room is terrible small.        That is not enough for the half of my baggage.', 'Asuka:  And, why are Japanese people cautionless.        How come you can live in a room without lock. Unbelievable.', "Asuka:  That's matter of fact! It's impossible for me to become this        low level Shinji guy.", "Asuka:  Don't say nothing.        I know,, I know I must pilot Eva.        I do. I will do.", 'Asuka:  You are being too simplistic, although You are a man!        I must revenge for my spoilt pride!', 'Asuka:  If you invade across the wall, you shall be executed.        Child must go to bed right now!', "Asuka:  It's you that lost the timing first.        You are always dull!        What were you doing last night without sleaping!", "Asuka:  That's terrible! I meant as a joke! You really did it?        You kissed me?", 'Asuka:  Oh, you are an old man, out-of-date.        This kind a suit is quite common these days.', 'Asuka:  The school excursion is quite special!        We have to refresh!', 'Asuka:  O-Ki-Na-Wa!        Scuba-diving is scheduled.        ', 'Asuka:  hmmmm, Hey you. Stop drinking tea.        Say something against her.        You are a man!', "Asuka:  We always have to wait, wait wait wait!        We are always waiting for the enemy whom we cannot expect when        to come.        Don't you figure out where they are and attack them first.", "Asuka:  Phew! you stupid!        What's the school result!        I don't care about the exam with demerit mark method of old days.", 'Asuka:  Hey look!        Since I cannt do scuba diving at Okinawa, I dive here.', "Asuka:  hmm, let me see, what are you doing?        Can't you solve this kinda easy formula?        Ok, this is the solution.", "Asuka:  That's right. I have not mastered all Kanji.        I did not studied Kanji in the University there.", 'Asuka:  Yes. I graduated last year.        What is written here?', 'Asuka:  Thermo-expansion? how childish!        In short, things swell and get bigger when warmed,        And shrink and get smaller when cooled, you know.', 'Asuka:  Oh, this anti-heat plug suits has nothing different from the        normal one.', "Asuka:  Is that my Unit02?        No, I don't want to go.        I don't show myself before public.        Shinji will become this kind a job!", "Asuka:  Oh, no, I don't have that courage to show this badlooking appearence        to Kanji-san.", "Asuka:  mmmmm,        I don't allow you to touch my Unit02, Excuse me.        It's not First but I that go.        Be patient for the badlooking appearence.", "Asuka:  Present depth 170, Speed of descending 20. Every part no problem.        View sight is Zero. I can't see nothing.        Switch to CT monitor.        But the range of sight is 120.", 'Asuka:  Oh, asshole, I dropped knife!        Coming from front!        release ballasts.        Ra... Rapid!        Oh, no I lost the target from the sight.        Addition to that, bad view sight and very hot!        Suits is full of sweat and disgusting me.        Oh, no! worst!', 'Asuka:  Roger!        Shit! Have you dropped Shinji?', "Asuka:  No, don't come!        Hey, come on!        too late!", 'Asuka:  Anti-heat process!        Shit!', 'Asuka:  That one!        This guy!', 'Asuka:  WOW! gggggg        phew!', "Asuka:  I've done it but...         It's really over?", 'Asuka:  Phew, Shinji!        Stupid! You did too much!', 'Asuka:  Ouch!        Stupid! Where to throw! awkward guy!', "Asuka: For being a man, you had not better worry about such every   little detail, don't you think? ", 'Asuka: What are you doing? Hey, take my place. Hmm. Ah? Hmm, hmm,   hmm. Damn it! This must be broken! ', 'Asuka: Me, too. Neither the wire one nor the emergency line are out   of service. ', "Asuka: Good idea. Well, let's elect the leader of our group before we   get into action. ", "Asuka: Of course, I must be a leader. You have no objection, do you?   Let's go! ", 'Asuka: Ah! ', "Asuka: I'm the leader. Don't take the initiative without my   permission. ", "Asuka: You, an idiot? Unidentified guys are invading to us, you know.   It's natural that we have to deal with a lot of difficulties   coming unexpectedly down on our heads. ", "Asuka: Hey, come on! As I'm the leader, you had better just follow   me. ", "Asuka: What do you mean by 'as I expected'. You are always saying too   much! Ah! Look! I'm sure this time. ", "Asuka: (Deaa! Ii! Uh! Hii! Nnnn. Huh.) We checked the angel with the   naked eyes. Then we knew that we must hurry up, don't you think? ", "Asuka: You're a favorite with Commander Ikari, aren't you? An   excellent girl loved is different from us. ", "Asuka: I shouldn't trifle with First. She is the kind of person who   sticks at nothing to achieve her aims. She is what is called a   self-righteous one. ", 'Asuka: What? Oh! No! Uh!  ', "Asuka: I have a plan. Defense stays here, neutralizes AT field and   also protects Offense from Angel's solvent liquid. Backup go down,   picks up the dropped rifle and gives it to Offense. And then   Offense destroys the target by a salvo of the rifle. ", "Asuka: That's the reason. I feel funny unless I don't get even with   you at the last battle. Shinji is Offense. Excellent girl is   Backup. All right? ", "Asuka: I've got even with you. ", "Asuka: But I don't feel that the people live there. Look, I feel easy   with this. ", "Asuka : Hum , you aim at me , don't you. I'm changing clothes, if you        peep, I kill you.", "Asuka : Surely yes! Kaji-san is completely different from this clamp,        it's just like day and night.         It's insult to Kaji-san to compare him with.", 'Asuka : Does she really consider that the children now-a-days would         be glad at steak dinner?        How poorsome the people of the Second Impact Generations are!', 'Asuka : Anyhow , she is going to invite us.        Where to go?         You must come this time!', 'Asuka : I know the contents of your wallet. Take it easy.        The honor student told that she would come with us for Chinese noodle.', "Asuka : That's why you pilot?        Truly idiot!", 'Asuka:  Something is wrong with my senses.  Only the right arm is clear, and        the rest is dim.', 'Asuka:  Obviously.', "Asuka:  By the way, as for the two guys' unit compatibility test.        Don't I have to participate that?", 'Asuka:  Neither Misato nor Kaji-san tell me nothing.        Shinji knows nothing.        What kind a girl is FIRST ?', 'Asuka:          WOW, Help me Kaji-san! What are you doing to me.                Abnormal! AAAAAA!                Phew. ', "Asuka:          I've wanted Kaji-san to take me somewhere Sunday tomorrow.                And I phoned, though he's been absent for long.                These days, he's been always out.", "Asuka:          Yeah, with a MD student.                Oh, I've got it. Hey, may I use that? Your perfume of lavender.", "Asuka:          He's been shutting himself for long.                It seems that he doesn't wanna see his father.                If he hates, he must say he doesn't want that.                Japanese people are such a ..", 'Asuka:          Continuation is power.                I slightly think better of you.', 'Asuka:          It was not a fun to be with that boy.                So, I escaped while we were in the queue                for the roller coaster.', "Asuka:          You don't want to kiss a girl in the anniversary of                your mother's death?                You are afraid that your mother might watch us                from the heaven?", 'Asuka:          (gargling)                Phew! I regret to have done that only to kill time.                (gargling)', "Asuka:          Nothing matters. It's OK!                Hey! Kaji-san!", 'Asuka : Shinji,it seems you beg as a conditional reflex not to be scolded. ', "Asuka : You're optimistic to accept his lifestyle.        Lately,you're too soft on Shinji,aren't you?        ", "Asuka : You recovered the frendship with Kaji-san, but you shouldn't         give us your happiness.        ", "Asuka : I know I've never gone around together in such dirty relationship.        Heck, you pretend to show yourself as a guardian.        Hypocrytic! I hate that!!        --Motal disease   epiand             sode                16", "Asuka :I'm beaten!        He easily exceeds me!        'cause he did it such easily, to be frank, I feel a bit vexing.        Great,wonderful, strong, too strong!        huh! Undefeatable Shinji-sama!        Now that our job will be easier, won't it?        But, we have to do our best not to be left behind.        ", 'Asuka : Alright, sensei.        I think Shinji-kun must be the van.        ', 'Asuka : well,in any case,        This is a job for a man of good record, daring and the number         one of the Syncro-rate.         Or do you have no confidence,Shin-chan?         ', 'Asuka :Anachronistic!        Unit two, backup.        ', "Asuka :You know Eva can't move that fast.(Eva-02's umbilical cable is caught at the building. Asuka pueges cable and inserts another one to the back of Eva-02)", 'Asuka : Oh well,-        Acting arbitrarily without consultation, defying the operation.        It\'s the consequence of his own fault.        He made good result on yesterday\'s test,        though he said, "I\'ll show a good example", huh, what a         frivolous boy he is!        ', 'Asuka : Wh, What?        Does abusing Shinji makes you so unpleasant?        ', 'Asuka : This way you always think yourself bad!        That is "self-punishing."', 'Asuka:  hmmm, but You have a time to see Misato.        hm?        Oh!', "Asuka:  Wow, this is our syncro-data.        Oh, four persons?        What! What does this mean?        What made this guy the fourth children?        No, I don't understand, what's this?", "Asuka:  Don't warry, I'm with Shinji as duty, and I'm not in the mood to see         his face, too.        About Suzuhara, right?", 'Asuka:  That one is the dullest.  Also an idiot.  He does not know how to go        around with the others.', 'Asuka:  That girl knows how to get along with people ten thousandth as        well as Shinji.', 'Asuka:  Really!        May I ask a question?', 'Asuka:  No!  I want to smile pretty since you are staying with me for tonight.        But not today.  I cannot smile!', "Asuka:    It may be all up with him.          That idiot won't get by, I guess.", "Asuka:    He hasn't been injured, so he'll come around soon.          He'd be dreaming now.", "Asuka:    Here it comes.          Even though someone like Shinji is absent,          that's just a cinch for me alone.", "Asuka:    The AT field must have been neutralized.          Why it doesn't get done for?", 'Asuka:    Kugh, huhg...-          This damn SOB!', "Asuka: Evacuation exercise?        Are you idiot?        That's nothing to do with us pilots.", "Asuka: I know the woman is well! Misato, don't phone me for such a   trivial thing! ", 'Asuka: I could nothing... I was outdone by that stupid Shinji... How   vexing! ', "Asuka: You idiot! Unknown fellows come and attack against us, you   know. It's natural that we have to deal with a lot of difficulties   coming unexpectedly down on our heads. ", "Asuka: Hey, idiot Shinji. Do you want to become one with me? Do you   want us to become one both mentally and physically? That's so   comfortable. I'm saying like this. Come on! ", "Asuka : I don't take that call !   After all, maybe it's the call from Kaji-san          to Misato.  Misato should take that.", 'Asuka : Oh, I really regret that I made Unrivaled Shinji do such a              trivial job.', "Asuka : Hey, I don't like the formal way as he does. ", 'Asuka : Me  ?   From Mother ?   Hand me the phone !           Hello, Mutter,', "Asuka : Oh, it looks...          It's only superficial look.   She is not my true mother.", "Asuka : But, It doesn't mean I dislike her.          Only I feel a little uncomfortable with her.          Ah !  What's the hell, I tell you such a thing!", "Asuka : HOOOM !    It's the last day for me when I received a           sympathy from you !", 'Asuka : Why should I experience such an untorelable time because           I am female ?  I need no kids.                           ', 'Asuka : So you mean I am shutting myself ?  Me ? ', "Asuka : Haan !   Today is so special day as you, even from you, talked to          me.  Tomorrow maybe we will have snow.          Damn !  You are so delighted that I can't drive Eva ?          Don't worry.  when an Angel comes, the invincible Shinji will          defeat it.           Nothing we must do.           They just need only Shinji !           If Shinji is there, everything is OK.          A-ha !  It's the most terrible thong that not only Shinji, but adoll like          you sympathize with me.", "Asuka : Shut up !  You do anything as you're ordered.           You will kill yourself if Commander Ikari orders you to do so.", 'Asuka : After all, you are just a doll !           You have looked like a doll, and I have hated you from           long, long time ago.            Mmm, Heee !   I hate everyone !  Everyone  !', 'Asuka : You are just my doll.          So move as I order and don\'t say NO.          Why a weapon has the mind ?  Obstructive !          Anyway, you must say just " Yes " to my order.          Hum ?   Foolish !', 'Asuka : If I fail this mission, maybe I will lose the position           of Unit-2 pilot.   You must not make any mistake,           Asuka.', 'Asuka : Oh, hurry up, come here, you lazy Angel !           Your laziness irritate me !', "Asuka : Don't peep into my mind !--              Please !  Don't invade into my mind anymore.", "Asuka : No, Definitely, No !          If I must retreat, I'd rather die here.", 'Asuka : Why am I crying ?          I decided that I would not cry anymore.', "Asuka : I am not a baby.    I will be an adult earlier than          other people.  I don't need a huggy bear.", "Asuka : No !  Don't make me remember such a thing !           I wanted to forget, so don't dig my memory !           I don't want such a terrible memory.           Stop !  Stop !", "Asuka : Got dirty, my mind has.           Kaji-san, it's polluted.  What should I do !           My mind was polluted ! ", "Asuka : Shut up !   What you called OK ?          It's the most terrible thing that I was rescued by that          girl !   Rescued by that dammed girl !          I rather prefer to die than this.          I hate, hate, everyone, everything !", "Asuka:          I did not win with Eva.                I lost all my values at any places.                I hate, I really hate, I hate everybody,                though it's myself that I hate most.                I,,, now that I care nothing, I have nothing to do.", 'Asuka:          I am on board again as usual.                Oh, no, I am still attatched to this?', "Asuka:          Mom! Mom!                They selected ME!                I'm an elite pilot about to protect mankind.                No.1 in the world.                Secret to anybody.                But I tell you mom!                Everybody is so kind to me                that I ain't lonely.                I am OK though I don't have my father.                Look at me! Me!                Hey Mom!", "Asuka:          Syncro rate Zero.                I've no capacity to be the second children.                I've no reason to exist.                No one looks at me.                Neither daddy, mom, nor anybody [cares me].                No reason for me to live.", "Asuka:          You idiot?                After all, it's for the sake of oneself.", 'Asuka:          To think that you are doing your best for the sake of others                is itself an easy way to live.', "Asuka:          All you do is to wait for someone's giving you a happiness.                A false happiness.", 'Asuka:          WOW.--                        Soryuu Asuka Langray.                        In her case,', "Asuka:          I'm in Eva without my intention.                I'm forced to be in this.                This junk won't move!                Oh, no, it's me that is a junk.                Useless am I.                No one needs me.                No one needs the pilot who cannot pilot Eva.", 'Asuka:          Shut up!-                        Anxiety of separation.', 'Asuka:          So piloting.-                        Action of attatchment.', 'Asuka:          Shut up!-                        Action of attatchment.', "Asuka:          Shut up! Shut up!                I don't wanna be told that by a doll like you!--                        The third character-                        Ayanami Rei, in her case,", "Asuka:          Then, it's my mind within Shinji.-                        In the case of Soryuu Asuka Langray.                        Part 1", "Asuka:          I can live alone.                I don't need either daddy or mom.                I live alone.                I don't cry anymore.", 'Asuka:          Yet, I am crying.                Why am I crying?', "Asuka:          NO! STOP!                Don't quit being my mother!                I'm going to be a good child whom you'd love.                So, don't quit being my mother.                So, look at me!                Stop MOM, don't kill me!", 'Asuka:          Am I disturbing?                Am I useless?', "Asuka:          NO!                I'm not your doll.                I can think by myself, I can live by myself.", 'Asuka:          At that time, Mom was hung from the cealing.                She looked very happy.', "Asuka:          But I hate her face back then.                I don't wanna die.                I don't wanna let myself disappear.                I don't like boys.                I don't like daddy, mom.                I don't like anybody!                Nobody protects me.                Nobody is by me.-                        What does she wish?", "Asuka:          So do I live alone.                But I don't want that.                It's painful.                I don't wanna be alone.                I don't wanna be alone.                I don't wanna be alone!", 'Asuka:          The destruction, the death, the return to nothingness,                All of these did you wish.', 'Asuka:          We are trying to compliment                by the instrumentality of earch other.', 'Asuka:          And, when you lost Eva, you can do nothing, like me.                        Why pilotting Eva?', "Asuka:          Morning, the begining of today, the begining of                a bad day. I don't like that.", 'Asuka:          What do you need?                        Hate peace?', 'Asuka:          Do you love me?                        Your Mother,                        Do you love her?', 'Asuka:          Because I would disappear.                        So what?', "Asuka:          You idiot! That's matter of fact!                Nobody ever understands you.", 'Asuka:          Stupid Shinji!                You wake up now. Stupid Shinji!', 'Asuka:          You say "It\'s you Asuka?."                Everymorning, I come to wake you up not to be late                for school. Is that the word of gratitude to say to a                 childhood friend?', 'Asuka:          What a lazy guy! Wake up! Wake up imediately.                Oh! NO! You, mean stupid horny guy! Unbelievable!', 'Asuka:          Well, yes. This city will be the new capitol city                after the capitol transfer the next year.                The population is increasing.', "Asuka:          NO, Stop! Don't say such a thing.                It's you that showed to Shinji!", "Little Asuka : So, see me.                    Mama, please,  don't stop being my mother.", "Little Asuka : Mama, Mama, Please, Don't kill me.                    No !                    I am not a doll of Mama.                    I will think by myself, and  I will live by myself.                    I need not Daddy or Mama.                    I will live alone.", 'Shinji&amp;Asuka: This is forced by Misato-san, who insists that Japanese should        begin with form.']</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D19" t="n">
-        <v>3228</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="20">
@@ -2488,14 +2488,14 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>["Shinji: Out of order ... I shouldn't have come ...      ", "Shinji: I may not be able to meet her. I can't help it. I'll go to   the shelter.  ", 'Shinji: Ahh  ', 'Shinji: Ahhhhhh! ', 'Shinji: Ahh!  ', 'Shinji: Is it OK that you did such a thing...?  ', "Shinji: You are childish for your age, aren't you?  ", "Shinji: I heard from the teacher that it's an important job for   protecting the human race. ", "Shinji: It's about my father's work... Are there anything for me to   do? ", "Shinji: I can't say I'm surprised. He can't write to me ... unless he   wants me to do anything. ", "Shinji: Ah, great! It's a real geofront!      ", "Shinji: Uh,uh, it's pitch dark.  ", 'Shinji: Do you mean that I should get into it and fight against the   guy which I saw. ', "Shinji: No way! What are you saying now?! I have been thinking that   you didn't want me?! ", "Shinji: I can't do that. I've neither seen it nor heard it. Why are   you saying that I can do it? ", "Shinji: I'm unnecessary as I expected...  ", 'Shinji: Watch out!  ', "Shinji: Don't run away, Don't run away, Don't run away, Don't run   away, Don't run away ...... I'll do it. I'll get into it. ", 'Shinji: I prefer to being alone. Any places are the same.', 'Shinji: Relishes ......     ', 'Shinji: Only beers ...... What life does she lead?     ', 'Shinji: Itadakimasu.     ', 'Shinji: Well. Because this is your house from today, you can really feel    at home here.', 'Shinji: In the bath, more unpleasant things come to my mind than    others.', "Shinji: This is an unknown ceiling, too. It's natural ... because I don't    know any places in this city.", 'Shinji: Switch ......  ', 'Shinji: Aim at the target in the center, switch ... Aim at the target   in the center, switch ... Aim at the target in the center, switch   ... Aim at the target in the center, switch ... Aim at the target   in the center ...... ', "Shinji: Misato-san, it's morning already.  ", 'Shinji: ITTEKIMASU.      ', "Shinji: It's some knife and the vibrations ...... like ultrasonic   wave ...... ", "Shinji: Speaking of myself, I'm not doing that by choice.  ", 'Shinji: Yes.  ', 'Shinji: Ah!  ', 'Shinji: Uh  ', "Shinji: Don't run away, don't run away, don't run away ......  ", 'Shinji: Uhaaaaaaaaah!  ', "Shinji: That isn't the question. Anyhow, it's only me that can get        into it. I'll do. ", 'Shinji: Misato said that the ecosystems are returning to their former        states.', "Shinji: You'd not better do it. I think your mother would be worried        about it.", "Shinji: You don't scold me, don't you? It's natural because you are no        relation to me.", "Shinji: If I tell you that I don't want to get into Unit One, how will        you do with it?", "Shinji: It's me that have to be hit. I'm mean, cowardly, dishonest and        a weakling ...... A man of", 'Shinji: We hardly speak to one another.  ', "Shinji: I just find it strange that I know so little about Ayanami, even though   she's an Eva pilot, like me... ", 'Shinji: Card... your card has been renewed and she asked me to deliver   it. ', "Shinji: That's true. There was no answer when I rang the bell and since   the door was unlocked...  ", "Shinji: Here's Ayanami's new card. Ritsuko-san asked me. ", "Shinji: Well, I heard that there's a reactivation experiment today. I hope    it will be successful this time. ", "Shinji: I heard that you were seriously injured in the last experiment.    You don't seem care about that. ", "Shinji: Of course I can't trust my father like that!  ", "Shinji: Oh, sorry!        I've been apologizing a lot since yesterday...", "Shinji: Your words can be so cold because you've never experienced        horrible things in it.  I never want to experience such things         again...", 'Shinji: You have nothing else...?        ', 'Shinji: Ayanami, are you all right? Ayanami!        Don\'t say "I have nothing else."        Don\'t say "good bye" when we launch--it\'s too sad.', "Shinji: The Earth and peace. I use Eva for the sake of those. What's Eva?        An entry plug which smells of blood and somehow calms me.        Nothing.  Nothing I know.", "Shinji: So, you're saying the Second Impact that vapourized Antarctica         was...", "Shinji: I'm glad! You are alive! I'm glad to hear that!        You're great! You're so wonderful! A miracle happened!", "Shinji: I thought so, but she's lazy, coarse, bad looking, and         anything but nice at home. It's shameful for me to see her.", "Shinji: Hello, I'm back.... but no one here..         WOW! What are these?", 'Shinji: How come you can solve this, while you get a bad result at the        school exam', 'Shinji: Asuka, are you alright?Asuka;  Out of the question.        Easier to bear than to worry. You konw.        It was easy job for me.        But, This is more like sauna suit than plug suit.        I wanna go hot spring!', 'Shinji: Oh, no!        Expanding... shameful.', 'Shinji: Err, well ... Today at the school, I told me to report to my   parent that an interview for career guidance will take place. But   ... ', 'Shinji: Ah! ', 'Shinji: I wonder about that. I thought that a failure occurred rather   than he hung up. ', "Shinji: Anyway let's make a contact with Nerv Headquarters. ", 'Shinji: (Nn,nnnn) You rely on me only in such a situation. ', 'Shinji: It usually takes only two minutes to go there. Is true that   this is a passage. ', 'Shinji: Angels, messengers of the God. Our enemies of Angel names.   Why are we fighting against them? ', 'Shinji: Something seems to be strange as I expected. The road leads   up. ', 'Shinji: Uh! ', "Shinji: There is nothing for it but to see. If I don't see forward, I   can't advanc...  ", "Shinji: Father's. ", "Shinji: Sure but how are you going to do it? I dropped my rifle and   the batteries on our backs are empty. We'll able to move for no   more than three minutes. ", "Shinji: It's ironic that the stars are very beautiful like this   without electric artificial lights. ", "Shinji: For that reason, I'm wonder if man is a special creature. So   Angels are attacking against us. ", 'Shinji : She might be still asleep. Recently she had lots of work for all        night job.', "Shinji : But I am not that used to be with many people.        Why must we make a fuss?        Your promotion suggests that Misato-san is appreciated by        people. doesn't it?", "Shinji : Don't shirk away! , Don't shirk away! , Don't shirk away!        So don't shirk away.", 'Shinji : Here we go!        Start!', 'Shinji : Field to full!        Uhh.', "Shinji : When I heard my father's words, I found for the first time that        it's glad to be praised.        And I also found... that I pilot Eva to hear those words from my        father.", "Shinji: WOW, what's this?        Something is entering directly into my head, what?        Ayanami? Ayanami Rei? It's Rei, this impression is Rei's.        Ayanami? Aren't you?", 'Shinji:         I am going to meet my father tomorrow.                What do you think I shall talk about with him?', 'Shinji:         Oh, when we were cleaning room today, you were wringing                the floorcloth.                You looked like a mother at that time.', "Shinji:         Yeah.                Yeah, that was just like the mother's way of wringing.                I bet you become a housewife.                (Laugh).", "Shinji:         Since I escaped at that time, I've never come here.                I don't feel like my mother sleeps here.                I don't remember my mother's face.", 'Shinji:         Father!                I mean, I am glad today, that I had a time to talk with you.', "Shinji:         I've been learning since I was five, and this skill.                I am not particulartly talented.", "Shinji:         I began this following my teacher's advise.                I could have quited immediately.", 'Shinji:         Yeah. She said she will be back very late.                and said "go to bed before I\'m back"', 'Shinji:         Kaji-san!                ', "Shinji : You don't come?        (I try to prevent it to leaving.)        ", "Shinji :What? Sh, Shadow! Ah,huah!        What's this!         Strange!        ", "Shinji :hoah,whoa!        Misato-san, what's going on? Misao-san!        Asuka, Ayanami, cover me!        Misato-san,can you hear me,Misato-san!        ", 'Shinji : I never thought sleeping exhausts me.         (Shinji activates monitor.)         Still only white noise.         \x81@\x81@\x81@\x81@Rader and sonar has gotten no response.\x81@\x81@\x81@\x81@\x81@\x81@\x81@\x81@Because this space is too vast.\x81@\x81@\x81@\x81@\x81@\x81@\x81@\x81@12 hours after I switched to the life-support-mode. Huh...\x81@\x81@\x81@\x81@\x81@\x81@\x81@\x81@My life will end in 4 or 5 hours.\x81@\x81@\x81@\x81@\x81@\x81@\x81@\x81@..feel hungry.\x81@\x81@\x81@\x81@ --', 'Shinji : Mm...        Water is getting muddy! Hug.        Purification capacity is reducing.        ', 'Shinji : Who?         Who?        ', "Shinji : You hate to be hurted.        Who's bad ?        Father is bad.        Father who deserted me.        ", 'Shinji : Father called me by my name.        I was praised by that my father.        ', 'Shinji : Everyone does so. Huh,        Doing so, people live.        ', "Shinji : There're too many pains in this world for me to live.        ", 'Shinji : You has been closing your eyes and turning your ears deaf         against anything you did not want to know.        ', 'Shinji : I found one thing I enjoy.        Am I wrong if I do the thing enjoyable?', 'Shinji : Father,        Am I a useless child ?        Father!!        ', 'Shinji : No!         Mother smiled at ...        ', 'Shinji : I hate this place,        and loneliness.', "Shinji: No other choice.        She won't read if we put them into this.", 'Shinji: Sorry, I settled on my own accord.        I touched nothing but rubbish.', 'Shinji: Is the rumor of Unit 4 being lost was true?        I heard there was an accident and Unit 4 was brown up.', 'Shinji: But I heard Unit 3 is coming from U.S..  The activation test will         take place at Matsushiro, right?', "Shinji: What's wrong.  You left home much earlier than me but you are pretty         late.", 'Shinji: But I understood many things about my father recently.  About his        job, about my mother. So,...', 'Shinji: Does it pilotted by a kid, just like the other units?  The kid of same        age?', 'Shinji: No! Father, no!  Please stop doing this!               Damn! Stop! Stop! Stop! Stop! Stop! Stop!        Owwwww! No!  NOOOO!', "Shinji:   Don't make me more angry by saying such things!          185 seconds are left to Unit One.                  This is enough for destroying at least half of the Headquarters.", "Shinji:   I'm saying that's not my concern!          My father ... that man was going to kill Touji,          by these hands of mine.", "Shinji:   Father, you are there, aren't you?          Say something; answer me!", 'Shinji:   I still have a direct connect....          ug, ghuahah, ahg,          darn, darn, d, darn...', "Shinji:   I couldn't forgive my father, who betrayed me.          Though finally I could have a nice talk with him,          My father doesn't understand my feeling at all.", "Shinji:   Isn't it all right?          What's wrong with running away from disagreeable things?", "Shinji:   Yes, I don't want to pilot EVA any more.          I don't want to stay here either.", "Shinji:   It's becoming to her.          I'm relieved.", "Shinji:   That's your way of life, Misato-san.          I can't follow that.", "Shinji:   Tell me just one thing;          Why it's Touji...  the Fourth Child-REN...?", "Shinji:   It's no use.          Please do away with them.          I won't pilot EVA any more.", 'Shinji:   Kaji-san.          What are you doing in the place like this?', 'Shinji:   Let me pilot!          Let me, me, pilot this, Unit One!          Father...', "Shinji:   Move, move, move.  Move, please move.          There is no use if it doesn't move now!", "Shinji:   Move, move, move,          move, move, move, move, move, move, move,          move, move, please move!          If it doesn't move now, if I don't do it now,          everyone's going to die!          I can't stand such a thing any more.          So, please move!", "Shinji: What's this? Where am I? Entryplug of Unit One? Nobody is   here. I'm not. What's this? What's this? What's this? I don't   know. These people. Yes. The people who I know, the people who   know me. I see. Everything is in my world. What's this? I don't   know it although this is my world. An image from outside. An   unpleasant image. I see. An enemy. ENEMY, ENEMY, ENEMY, ENEMY. Our   enemies called Angel which have the angelic names. Evs's and   Nerv's target. Revenge of Misato's father. Why am I fighting? I go   so far as to have such a bitter experience. ", "Shinji: I don't need the reason? I shouldn't think of it? ENEMY,   ENEMY, ENEMY, ENEMY, EVERYONE IS ENEMY! Something threatening me,   us. It means ENEMY. Definitely. Nobody think badly of me if I   myself protect my life, our lives! ENEMY, ENEMY, ENEMY, ENEMY. My   ENEMY! My ENEMY!! Damn it! Damn it! Damn it! You injured Toji and   killed Mother! Father. Uhhhhhh! ", 'Shinji: Definitely. It must be the truth! I was deserted because he   had Ayanami. ', 'Shinji: Shut up! Shut up! Shut up! Father is to be totally blamed!   Then I was going to tell him that I hated him. ', 'Shinji: Are you telling me to get into this and have fearful   experiences, Father? ', "Shinji: What! I won't. What are you saying now?! Father, can't you   need me? ", "Shinji: I can't. I can't do that because I've never seen it nor heard   it. ", 'Shinji: No. I knew it. I remember. I knew Eva. And then I ran away   from Father and Mother. ', "Shinji: Comfortable. Warm. This is human warmth, isn't this? I've   never had it. ", "Shinji: It's because I'm a pilot of Eva. They are kind to me because   I get into Eva. It's the reason why I can stay here. It's all   which support me. So I must get into Eva. ", 'Shinji: Enemy. Yes, I must fight against the ones which everyone   calls enemies. ', "Shinji: I must win. Yes, I mustn't lose. I must get into Eva as they   say and I must win as they say. Otherwise, nobody, nobody, nobody   ... ", "Shinji: Misato-san, Ritsuko-san, Asuka, Toji, Kensuke and Father   praise me. They praise me because I get into Eva. The fellow like   me. Everyone tells me to get into it. Father does. I'll show him   what I can do. ", "Shinji: I'm doing my best. I am. Please be kind to me. I've been   fighting so much. I'm fighting as well as I can. Take care of me,   please. Be kind to me! ", "Shinji: Smell. I smell someone. Misato-san? Ayanami? No, it doesn's   smell them. I got it. It smells Mother. ", "Shinji : An international call from Germany to Asuka.             It's your mother.", 'Shinji : (Monologue )              ( Listening her speaking unfamiliar language,                I feel as if Asuka were a stranger.)', "Shinji:         Misato-san's shutting herself up today as ever.         Permitted Person ONLY        If you enter without my permission, you shall die!        Eintritt Verboter!", 'Shinji:         Misato-san. Never come out the tears.                I think I am sad, but never come out the tears.', 'Shinji:         Stop!                No, Misato-san.', 'Shinji:         Ayanami!        The First Nerve Surgery/ Right                              / Second Floor        The Third Surgery    / Radio-active        UP                  / Left Lentogen', "Shinji:         I'm glad, You are alive!                My father is not here?                Thank you! You saved me.", 'Shinji:         Ayanami Rei,,                Aha!', 'Shinji:         Human?                Is that a human?', "Shinji:         Ayanami Rei,                That may be true... that impression.                My mom's ..                Rei and my Mom, ,,                What is my daddy doing for these two.", 'Shinji:         Where has Asuka been.                (What should I talk with her?                Story about Ayanami?)', "Shinji:         (Touji, Kensuke lost their house here and went to somewhere.                No friend, I have no friend here.                No one.                I don't want to see Ayanami.                I lost the courage to see her.                How shall I behave before her?                Asuka, Misato-san, Mom,                What Shall I do? What!", 'Shinji:         Is that so?                Well, who are you?', 'Shinji:         Fifth children!?                Are you? Nagisa-kun?', "Shinji:         Well, the usual test was over and,                I am going to have a shower before I go home.                Yet, I don't want to go home these days.", "Shinji:         Oh, you need not. It's me that asked you to let me here.                I'm OK that I sleep here.", "Shinji:         I've experienced many things after I came here.                I was at my teacher's before.                Silent and calm days.                I did nothing but exist.                It was OK with me.                I had nothing to do.", "Shinji:         Well, I don't care people.                except for my father that I hate.                (Why am I talking about this kinda things to Kaoru-kun?)", 'Shinji:         NO NO NO, MUST BE A LIE!                Kaoru-kun is an Angel?                That MUST BE LIE!', 'Shinji:         You betrayed me!                You betrayed my mind!                You betrayed like my father!', "Shinji:         Kaoru-kun STOP!                I don't see Why.", 'Shinji:         gggggg,                Kaoru-kun!', "Shinji:         What, What are you talking about?                Kaoru-kun! I don't figure out what are you talking about!                Kaoru-kun!", 'Shinji:         Kaoru-kun, said "I love you."                To me!                For the first time, for the first time I heard the words.                He looks like me.                He looks like Ayanami.                I loved him.                It is Kaoru-kun that must have survived.                He was much better than I am.                He should have survived.', 'Shinji:         There was no other choice!-                        Why killed?', 'Shinji:         Because Kaoru-kun was, He was an Angel!-                        Although he is a human as well?', 'Shinji:         No! Angel!                He was our enemy!-                        Although he was a human as well?', 'Shinji:         NO!                Angel is he.', "Shinji:         THAT'S RIGHT!                Otherwise, we'd be killed.                Everybody'd be killed.", "Shinji:         I did not want to kill him.                Yet, there's no other choice!-                        So killed.", 'Shinji:         Help!-                        So killed.', 'Shinji:         Help!-                        So killed.', 'Shinji:         Help!-                        So killed.', 'Shinji:         Somebody help me!-                        So killed.', "Shinji:         Yes. It's Kaoru-kun that must have survived.                He was much better than I am.                He should have survived.", 'Shinji:         Is that really so?-                        Anxiety', 'Shinji:         Was that what I wished?-                        Obsession', "Shinji:         I don't figure out.                What shall I do?                What Shall I DO!-                        What do you fear?", 'Shinji:         What?-                        What do you fear?', 'Shinji:         Me.-                        What do you fear?', 'Shinji:         to be disliked.-                        What do you fear?', 'Shinji:         By whom?-                        What do you fear?', 'Shinji:         Who?-                        What do you fear?', "Shinji:         That's my father!                He deserted me!                I was disliked.                What shall I do if disliked?                What shall I do?", 'Shinji:         Where am I?                Where shall I go?                Nothing visible.                Nothing inteligible.                ...                Misato-san?                Misato-san!                Hey, where are you?                Hey, where shall I go from now on?                Misato-san!                Asuka!                Ayanami!                Touji!                Kensuke!                Ritsuko-san!                Kaji-san!                Father!                Mother!                Tell me,                What I should do!', 'Shinji:         I have to pilot this, after all,                killing the one that I loved,                obaying the words from my father and others.                You say I must fight on this?                Mom! say something! answer me!--                        Why pilot Eva?', "Shinji:         'Cause People ask me to pilot.-                        So you pilot?", "Shinji:         Isn't it OK? It's for the sake of everybody! Isn't it OK?-                        You pilot Eva for the sake of others?", 'Shinji:         Yes!                That is a good thing.                That is a very good thing.                Everyone prases me, then.', 'Shinji:         What feeling is this?                That is what I feel like I experienced before.                My body seems like dispearing.                Agreeable.                I feel like spreading, and becoming large,                to here, there and everywhere.-                        That was the very begining                        of the complimentation of the people                        by the instrumentality of man.-                        Things people lost.-                        The lost minds.-                        Complimenting the vacuum in the mind.-                        The complimentation                        by the instrumentality of minds and soul begins.-                        All things return to nothingness.-                        The complimentation                        by the instrumentality of man                        has just begun.', 'Shinji:         In ordert for me to find me, I have to feel many kinda people.                I have to gaze inside of me.                I have to gaze the Misato-san within me.                What do you hope?-                        You wanna be a good child.', 'Shinji:         This is the truth.                The result of everything, is this?', 'Shinji:         This darkness, this incomlete world,,                Do you say, all of these did I wish?', 'Shinji:         After all, I am a useless child.                Nobody cares me.', 'Shinji:         Probably for myself.                        Is that true?', "Shinji:         Yet, I don't. I don't want to run away.                No. I shall not run away.", "Shinji:         I say, if ran away, nobody would care me.                Don't desert me! I hope! Don't desert me!", "Shinji:         Shut up! That's nothing to do with me.                People don't care me.", 'Shinji:         Before piloting Eva, I had nothing.                The fact that I pilot Eva lets me stay here.', 'Shinji:         I have nothing. NOTHING.                        The value to live?', "Shinji:         No don't I have. I hate myself.                        THUS,", 'Shinji:         Now, everybody hates me.                Probably, people hate me.', 'Shinji:         But, I am praised.                I am praised when I pilot Eva.                I was praised.                        So, happy.', 'Shinji:         I was praised by people!                But, not happy.', "Shinji:         It's OK. I've had nothing from the begining.                I've been learning cello, but results nothing.", "Shinji:         Because it's all of me.", "Shinji:         Blue sky. Something warm, something not used to,                something horrible. something useless. I don't like that.", 'Shinji:         What I fear is,                        Rejection', 'Shinji:         Before that, I need. I need my value.                In order to be appreciated, in order not to be                 deserted,                        I need my VALUE.', 'Shinji:         Then what am I?                        Where am I?', 'Shinji:         What the hell am I?                        So, needs the blockade of mind.', "Shinji:         What? It's me. The shape that I show to others,                the symbol representing me.                This, and this, and this all these are the representation                of me. Nothing but the things that make others cognize me.                What am I? This is me? The true me? The false me?", "Shinji:         Let's see. My clothes, my shoes, my room.                Those are part of myself.", "Shinji:         The thing that I think myself is me.                I am nothing but myself.                Yet, I don't understand. Where am I?                What am I? What am I?                Nobody understands me.", "Shinji:         But still I don't have myself, so I don't understand myself.                There's no way to take care of myself.                        You are unstable.", 'Shinji:         This is the world with nothing, the space with nothing,                the world with nothing.                The world with nothing but me.                I am getting  less understand myself.                I feel as if I am going to disappear.                My existence is fading away.                        Why?', 'Shinji:         My shape?                        My image.', 'Shinji:         Because there are others, I can exist.                If alone, I am always alone at anywhere.                The world is entirely by my ..', "Shinji:         Yes. I am I. Yet, it's true that others form the shape                of my mind.", "Shinji:         I've got it. This is also a world.                The possiblity within me.                The me at the moment is not always the me as I am.                There are many myselves.                Yes. There must be the me who is not the Eva pilot.", 'Shinji:         The real world might not always be bad.                Yet, I hate myself. ', 'Shinji:         I hate myself.                But, I might be able to love myself.                I might be allowed to stay here.                Yes. I am nothing but I.                I am I. I wish to be I.                I wish to stay here as do I.                I can stay here as do I!', 'Shinji:         Thank you!                        Thank you, my father.                        Good  bye, my mother.                        And to the all children,                        Congratulations!', 'Shinji&amp;Asuka: This is forced by Misato-san, who insists that Japanese should        begin with form.', 'Shinji&amp;Asuka: This is forced by Misato-san, who insists that Japanese should        begin with form.', 'Shiji: Aim the target in the center and switch, aim the target in the   center and switch, ...... ', "Shiji:  You say it is the target,         but aren't there a person in there?        A kid of the same age.        An entry plug.  There Is a person inside of it.        Grrrrrrr.", "Shinji' : Hey, you run away again.        No one  can live on with linking things one enjoys like         the rosary.        Particularly, I cannot.        ", "Shinji ' : I am you.          One has another self inside within oneself.          The Self is always consisted of two selves.", "Shinji ' : The self who's actually watched by others and          the self who wathces itself.         IKARI Shinji in your mind.         IKARI Shinji in KATSURAGI Misato's mind.         IKARI Shinji in Souryuu Asuka's mind.         IKARI Shinji in AYANAMI Rei's mind.         IKARI Shinji in IKARI Gendou's mind.        Any IKARI Shinji is differnt from each other,        but each of them is true IKARI Shinji.        You're afraid of IKARI Shinji in other's mind.        ", "Shinji ' : Unless you continue to think you may not change yourself,         you can't live on.         ", 'Shinji&amp;Asuka: This is forced by Misato-san, who insists that Japanese should        begin with form.']</t>
+          <t>["Shinji: Out of order ... I shouldn't have come ...      ", "Shinji: I may not be able to meet her. I can't help it. I'll go to   the shelter.  ", 'Shinji: Ahh  ', 'Shinji: Ahhhhhh! ', 'Shinji: Ahh!  ', 'Shinji: Is it OK that you did such a thing...?  ', "Shinji: You are childish for your age, aren't you?  ", "Shinji: I heard from the teacher that it's an important job for   protecting the human race. ", "Shinji: It's about my father's work... Are there anything for me to   do? ", "Shinji: I can't say I'm surprised. He can't write to me ... unless he   wants me to do anything. ", "Shinji: Ah, great! It's a real geofront!      ", "Shinji: Uh,uh, it's pitch dark.  ", 'Shinji: Do you mean that I should get into it and fight against the   guy which I saw. ', "Shinji: No way! What are you saying now?! I have been thinking that   you didn't want me?! ", "Shinji: I can't do that. I've neither seen it nor heard it. Why are   you saying that I can do it? ", "Shinji: I'm unnecessary as I expected...  ", 'Shinji: Watch out!  ', "Shinji: Don't run away, Don't run away, Don't run away, Don't run   away, Don't run away ...... I'll do it. I'll get into it. ", 'Shinji: I prefer to being alone. Any places are the same.', 'Shinji: Relishes ......     ', 'Shinji: Only beers ...... What life does she lead?     ', 'Shinji: Itadakimasu.     ', 'Shinji: Well. Because this is your house from today, you can really feel    at home here.', 'Shinji: In the bath, more unpleasant things come to my mind than    others.', "Shinji: This is an unknown ceiling, too. It's natural ... because I don't    know any places in this city.", 'Shinji: Switch ......  ', 'Shinji: Aim at the target in the center, switch ... Aim at the target   in the center, switch ... Aim at the target in the center, switch   ... Aim at the target in the center, switch ... Aim at the target   in the center ...... ', "Shinji: Misato-san, it's morning already.  ", 'Shinji: ITTEKIMASU.      ', "Shinji: It's some knife and the vibrations ...... like ultrasonic   wave ...... ", "Shinji: Speaking of myself, I'm not doing that by choice.  ", 'Shinji: Yes.  ', 'Shinji: Ah!  ', 'Shinji: Uh  ', "Shinji: Don't run away, don't run away, don't run away ......  ", 'Shinji: Uhaaaaaaaaah!  ', "Shinji: That isn't the question. Anyhow, it's only me that can get        into it. I'll do. ", 'Shinji: Misato said that the ecosystems are returning to their former        states.', "Shinji: You'd not better do it. I think your mother would be worried        about it.", "Shinji: You don't scold me, don't you? It's natural because you are no        relation to me.", "Shinji: If I tell you that I don't want to get into Unit One, how will        you do with it?", "Shinji: It's me that have to be hit. I'm mean, cowardly, dishonest and        a weakling ...... A man of", 'Shinji: We hardly speak to one another.  ', "Shinji: I just find it strange that I know so little about Ayanami, even though   she's an Eva pilot, like me... ", 'Shinji: Card... your card has been renewed and she asked me to deliver   it. ', "Shinji: That's true. There was no answer when I rang the bell and since   the door was unlocked...  ", "Shinji: Here's Ayanami's new card. Ritsuko-san asked me. ", "Shinji: Well, I heard that there's a reactivation experiment today. I hope    it will be successful this time. ", "Shinji: I heard that you were seriously injured in the last experiment.    You don't seem care about that. ", "Shinji: Of course I can't trust my father like that!  ", "Shinji: Oh, sorry!        I've been apologizing a lot since yesterday...", "Shinji: Your words can be so cold because you've never experienced        horrible things in it.  I never want to experience such things         again...", 'Shinji: You have nothing else...?        ', 'Shinji: Ayanami, are you all right? Ayanami!        Don\'t say "I have nothing else."        Don\'t say "good bye" when we launch--it\'s too sad.', "Shinji: The Earth and peace. I use Eva for the sake of those. What's Eva?        An entry plug which smells of blood and somehow calms me.        Nothing.  Nothing I know.", "Shinji: So, you're saying the Second Impact that vapourized Antarctica         was...", "Shinji: I'm glad! You are alive! I'm glad to hear that!        You're great! You're so wonderful! A miracle happened!", "Shinji: I thought so, but she's lazy, coarse, bad looking, and         anything but nice at home. It's shameful for me to see her.", "Shinji: Hello, I'm back.... but no one here..         WOW! What are these?", 'Shinji: How come you can solve this, while you get a bad result at the        school exam', 'Shinji: Asuka, are you alright?Asuka;  Out of the question.        Easier to bear than to worry. You konw.        It was easy job for me.        But, This is more like sauna suit than plug suit.        I wanna go hot spring!', 'Shinji: Oh, no!        Expanding... shameful.', 'Shinji: Err, well ... Today at the school, I told me to report to my   parent that an interview for career guidance will take place. But   ... ', 'Shinji: Ah! ', 'Shinji: I wonder about that. I thought that a failure occurred rather   than he hung up. ', "Shinji: Anyway let's make a contact with Nerv Headquarters. ", 'Shinji: (Nn,nnnn) You rely on me only in such a situation. ', 'Shinji: It usually takes only two minutes to go there. Is true that   this is a passage. ', 'Shinji: Angels, messengers of the God. Our enemies of Angel names.   Why are we fighting against them? ', 'Shinji: Something seems to be strange as I expected. The road leads   up. ', 'Shinji: Uh! ', "Shinji: There is nothing for it but to see. If I don't see forward, I   can't advanc...  ", "Shinji: Father's. ", "Shinji: Sure but how are you going to do it? I dropped my rifle and   the batteries on our backs are empty. We'll able to move for no   more than three minutes. ", "Shinji: It's ironic that the stars are very beautiful like this   without electric artificial lights. ", "Shinji: For that reason, I'm wonder if man is a special creature. So   Angels are attacking against us. ", 'Shinji : She might be still asleep. Recently she had lots of work for all        night job.', "Shinji : But I am not that used to be with many people.        Why must we make a fuss?        Your promotion suggests that Misato-san is appreciated by        people. doesn't it?", "Shinji : Don't shirk away! , Don't shirk away! , Don't shirk away!        So don't shirk away.", 'Shinji : Here we go!        Start!', 'Shinji : Field to full!        Uhh.', "Shinji : When I heard my father's words, I found for the first time that        it's glad to be praised.        And I also found... that I pilot Eva to hear those words from my        father.", "Shinji: WOW, what's this?        Something is entering directly into my head, what?        Ayanami? Ayanami Rei? It's Rei, this impression is Rei's.        Ayanami? Aren't you?", 'Shinji:         I am going to meet my father tomorrow.                What do you think I shall talk about with him?', 'Shinji:         Oh, when we were cleaning room today, you were wringing                the floorcloth.                You looked like a mother at that time.', "Shinji:         Yeah.                Yeah, that was just like the mother's way of wringing.                I bet you become a housewife.                (Laugh).", "Shinji:         Since I escaped at that time, I've never come here.                I don't feel like my mother sleeps here.                I don't remember my mother's face.", 'Shinji:         Father!                I mean, I am glad today, that I had a time to talk with you.', "Shinji:         I've been learning since I was five, and this skill.                I am not particulartly talented.", "Shinji:         I began this following my teacher's advise.                I could have quited immediately.", 'Shinji:         Yeah. She said she will be back very late.                and said "go to bed before I\'m back"', 'Shinji:         Kaji-san!                ', "Shinji : You don't come?        (I try to prevent it to leaving.)        ", "Shinji :What? Sh, Shadow! Ah,huah!        What's this!         Strange!        ", "Shinji :hoah,whoa!        Misato-san, what's going on? Misao-san!        Asuka, Ayanami, cover me!        Misato-san,can you hear me,Misato-san!        ", 'Shinji : I never thought sleeping exhausts me.         (Shinji activates monitor.)         Still only white noise.         \x81@\x81@\x81@\x81@Rader and sonar has gotten no response.\x81@\x81@\x81@\x81@\x81@\x81@\x81@\x81@Because this space is too vast.\x81@\x81@\x81@\x81@\x81@\x81@\x81@\x81@12 hours after I switched to the life-support-mode. Huh...\x81@\x81@\x81@\x81@\x81@\x81@\x81@\x81@My life will end in 4 or 5 hours.\x81@\x81@\x81@\x81@\x81@\x81@\x81@\x81@..feel hungry.\x81@\x81@\x81@\x81@ --', 'Shinji : Mm...        Water is getting muddy! Hug.        Purification capacity is reducing.        ', 'Shinji : Who?         Who?        ', "Shinji : You hate to be hurted.        Who's bad ?        Father is bad.        Father who deserted me.        ", 'Shinji : Father called me by my name.        I was praised by that my father.        ', 'Shinji : Everyone does so. Huh,        Doing so, people live.        ', "Shinji : There're too many pains in this world for me to live.        ", 'Shinji : You has been closing your eyes and turning your ears deaf         against anything you did not want to know.        ', 'Shinji : I found one thing I enjoy.        Am I wrong if I do the thing enjoyable?', 'Shinji : Father,        Am I a useless child ?        Father!!        ', 'Shinji : No!         Mother smiled at ...        ', 'Shinji : I hate this place,        and loneliness.', "Shinji: No other choice.        She won't read if we put them into this.", 'Shinji: Sorry, I settled on my own accord.        I touched nothing but rubbish.', 'Shinji: Is the rumor of Unit 4 being lost was true?        I heard there was an accident and Unit 4 was brown up.', 'Shinji: But I heard Unit 3 is coming from U.S..  The activation test will         take place at Matsushiro, right?', "Shinji: What's wrong.  You left home much earlier than me but you are pretty         late.", 'Shinji: But I understood many things about my father recently.  About his        job, about my mother. So,...', 'Shinji: Does it pilotted by a kid, just like the other units?  The kid of same        age?', 'Shinji: No! Father, no!  Please stop doing this!               Damn! Stop! Stop! Stop! Stop! Stop! Stop!        Owwwww! No!  NOOOO!', "Shinji:   Don't make me more angry by saying such things!          185 seconds are left to Unit One.                  This is enough for destroying at least half of the Headquarters.", "Shinji:   I'm saying that's not my concern!          My father ... that man was going to kill Touji,          by these hands of mine.", "Shinji:   Father, you are there, aren't you?          Say something; answer me!", 'Shinji:   I still have a direct connect....          ug, ghuahah, ahg,          darn, darn, d, darn...', "Shinji:   I couldn't forgive my father, who betrayed me.          Though finally I could have a nice talk with him,          My father doesn't understand my feeling at all.", "Shinji:   Isn't it all right?          What's wrong with running away from disagreeable things?", "Shinji:   Yes, I don't want to pilot EVA any more.          I don't want to stay here either.", "Shinji:   It's becoming to her.          I'm relieved.", "Shinji:   That's your way of life, Misato-san.          I can't follow that.", "Shinji:   Tell me just one thing;          Why it's Touji...  the Fourth Child-REN...?", "Shinji:   It's no use.          Please do away with them.          I won't pilot EVA any more.", 'Shinji:   Kaji-san.          What are you doing in the place like this?', 'Shinji:   Let me pilot!          Let me, me, pilot this, Unit One!          Father...', "Shinji:   Move, move, move.  Move, please move.          There is no use if it doesn't move now!", "Shinji:   Move, move, move,          move, move, move, move, move, move, move,          move, move, please move!          If it doesn't move now, if I don't do it now,          everyone's going to die!          I can't stand such a thing any more.          So, please move!", "Shinji: What's this? Where am I? Entryplug of Unit One? Nobody is   here. I'm not. What's this? What's this? What's this? I don't   know. These people. Yes. The people who I know, the people who   know me. I see. Everything is in my world. What's this? I don't   know it although this is my world. An image from outside. An   unpleasant image. I see. An enemy. ENEMY, ENEMY, ENEMY, ENEMY. Our   enemies called Angel which have the angelic names. Evs's and   Nerv's target. Revenge of Misato's father. Why am I fighting? I go   so far as to have such a bitter experience. ", "Shinji: I don't need the reason? I shouldn't think of it? ENEMY,   ENEMY, ENEMY, ENEMY, EVERYONE IS ENEMY! Something threatening me,   us. It means ENEMY. Definitely. Nobody think badly of me if I   myself protect my life, our lives! ENEMY, ENEMY, ENEMY, ENEMY. My   ENEMY! My ENEMY!! Damn it! Damn it! Damn it! You injured Toji and   killed Mother! Father. Uhhhhhh! ", 'Shinji: Definitely. It must be the truth! I was deserted because he   had Ayanami. ', 'Shinji: Shut up! Shut up! Shut up! Father is to be totally blamed!   Then I was going to tell him that I hated him. ', 'Shinji: Are you telling me to get into this and have fearful   experiences, Father? ', "Shinji: What! I won't. What are you saying now?! Father, can't you   need me? ", "Shinji: I can't. I can't do that because I've never seen it nor heard   it. ", 'Shinji: No. I knew it. I remember. I knew Eva. And then I ran away   from Father and Mother. ', "Shinji: Comfortable. Warm. This is human warmth, isn't this? I've   never had it. ", "Shinji: It's because I'm a pilot of Eva. They are kind to me because   I get into Eva. It's the reason why I can stay here. It's all   which support me. So I must get into Eva. ", 'Shinji: Enemy. Yes, I must fight against the ones which everyone   calls enemies. ', "Shinji: I must win. Yes, I mustn't lose. I must get into Eva as they   say and I must win as they say. Otherwise, nobody, nobody, nobody   ... ", "Shinji: Misato-san, Ritsuko-san, Asuka, Toji, Kensuke and Father   praise me. They praise me because I get into Eva. The fellow like   me. Everyone tells me to get into it. Father does. I'll show him   what I can do. ", "Shinji: I'm doing my best. I am. Please be kind to me. I've been   fighting so much. I'm fighting as well as I can. Take care of me,   please. Be kind to me! ", "Shinji: Smell. I smell someone. Misato-san? Ayanami? No, it doesn's   smell them. I got it. It smells Mother. ", "Shinji : An international call from Germany to Asuka.             It's your mother.", 'Shinji : (Monologue )              ( Listening her speaking unfamiliar language,                I feel as if Asuka were a stranger.)', "Shinji:         Misato-san's shutting herself up today as ever.         Permitted Person ONLY        If you enter without my permission, you shall die!        Eintritt Verboter!", 'Shinji:         Misato-san. Never come out the tears.                I think I am sad, but never come out the tears.', 'Shinji:         Stop!                No, Misato-san.', 'Shinji:         Ayanami!        The First Nerve Surgery/ Right                              / Second Floor        The Third Surgery    / Radio-active        UP                  / Left Lentogen', "Shinji:         I'm glad, You are alive!                My father is not here?                Thank you! You saved me.", 'Shinji:         Ayanami Rei,,                Aha!', 'Shinji:         Human?                Is that a human?', "Shinji:         Ayanami Rei,                That may be true... that impression.                My mom's ..                Rei and my Mom, ,,                What is my daddy doing for these two.", 'Shinji:         Where has Asuka been.                (What should I talk with her?                Story about Ayanami?)', "Shinji:         (Touji, Kensuke lost their house here and went to somewhere.                No friend, I have no friend here.                No one.                I don't want to see Ayanami.                I lost the courage to see her.                How shall I behave before her?                Asuka, Misato-san, Mom,                What Shall I do? What!", 'Shinji:         Is that so?                Well, who are you?', 'Shinji:         Fifth children!?                Are you? Nagisa-kun?', "Shinji:         Well, the usual test was over and,                I am going to have a shower before I go home.                Yet, I don't want to go home these days.", "Shinji:         Oh, you need not. It's me that asked you to let me here.                I'm OK that I sleep here.", "Shinji:         I've experienced many things after I came here.                I was at my teacher's before.                Silent and calm days.                I did nothing but exist.                It was OK with me.                I had nothing to do.", "Shinji:         Well, I don't care people.                except for my father that I hate.                (Why am I talking about this kinda things to Kaoru-kun?)", 'Shinji:         NO NO NO, MUST BE A LIE!                Kaoru-kun is an Angel?                That MUST BE LIE!', 'Shinji:         You betrayed me!                You betrayed my mind!                You betrayed like my father!', "Shinji:         Kaoru-kun STOP!                I don't see Why.", 'Shinji:         gggggg,                Kaoru-kun!', "Shinji:         What, What are you talking about?                Kaoru-kun! I don't figure out what are you talking about!                Kaoru-kun!", 'Shinji:         Kaoru-kun, said "I love you."                To me!                For the first time, for the first time I heard the words.                He looks like me.                He looks like Ayanami.                I loved him.                It is Kaoru-kun that must have survived.                He was much better than I am.                He should have survived.', 'Shinji:         There was no other choice!-                        Why killed?', 'Shinji:         Because Kaoru-kun was, He was an Angel!-                        Although he is a human as well?', 'Shinji:         No! Angel!                He was our enemy!-                        Although he was a human as well?', 'Shinji:         NO!                Angel is he.', "Shinji:         THAT'S RIGHT!                Otherwise, we'd be killed.                Everybody'd be killed.", "Shinji:         I did not want to kill him.                Yet, there's no other choice!-                        So killed.", 'Shinji:         Help!-                        So killed.', 'Shinji:         Help!-                        So killed.', 'Shinji:         Help!-                        So killed.', 'Shinji:         Somebody help me!-                        So killed.', "Shinji:         Yes. It's Kaoru-kun that must have survived.                He was much better than I am.                He should have survived.", 'Shinji:         Is that really so?-                        Anxiety', 'Shinji:         Was that what I wished?-                        Obsession', "Shinji:         I don't figure out.                What shall I do?                What Shall I DO!-                        What do you fear?", 'Shinji:         What?-                        What do you fear?', 'Shinji:         Me.-                        What do you fear?', 'Shinji:         to be disliked.-                        What do you fear?', 'Shinji:         By whom?-                        What do you fear?', 'Shinji:         Who?-                        What do you fear?', "Shinji:         That's my father!                He deserted me!                I was disliked.                What shall I do if disliked?                What shall I do?", 'Shinji:         Where am I?                Where shall I go?                Nothing visible.                Nothing inteligible.                ...                Misato-san?                Misato-san!                Hey, where are you?                Hey, where shall I go from now on?                Misato-san!                Asuka!                Ayanami!                Touji!                Kensuke!                Ritsuko-san!                Kaji-san!                Father!                Mother!                Tell me,                What I should do!', 'Shinji:         I have to pilot this, after all,                killing the one that I loved,                obaying the words from my father and others.                You say I must fight on this?                Mom! say something! answer me!--                        Why pilot Eva?', "Shinji:         'Cause People ask me to pilot.-                        So you pilot?", "Shinji:         Isn't it OK? It's for the sake of everybody! Isn't it OK?-                        You pilot Eva for the sake of others?", 'Shinji:         Yes!                That is a good thing.                That is a very good thing.                Everyone prases me, then.', 'Shinji:         What feeling is this?                That is what I feel like I experienced before.                My body seems like dispearing.                Agreeable.                I feel like spreading, and becoming large,                to here, there and everywhere.-                        That was the very begining                        of the complimentation of the people                        by the instrumentality of man.-                        Things people lost.-                        The lost minds.-                        Complimenting the vacuum in the mind.-                        The complimentation                        by the instrumentality of minds and soul begins.-                        All things return to nothingness.-                        The complimentation                        by the instrumentality of man                        has just begun.', 'Shinji:         In ordert for me to find me, I have to feel many kinda people.                I have to gaze inside of me.                I have to gaze the Misato-san within me.                What do you hope?-                        You wanna be a good child.', 'Shinji:         This is the truth.                The result of everything, is this?', 'Shinji:         This darkness, this incomlete world,,                Do you say, all of these did I wish?', 'Shinji:         After all, I am a useless child.                Nobody cares me.', 'Shinji:         Probably for myself.                        Is that true?', "Shinji:         Yet, I don't. I don't want to run away.                No. I shall not run away.", "Shinji:         I say, if ran away, nobody would care me.                Don't desert me! I hope! Don't desert me!", "Shinji:         Shut up! That's nothing to do with me.                People don't care me.", 'Shinji:         Before piloting Eva, I had nothing.                The fact that I pilot Eva lets me stay here.', 'Shinji:         I have nothing. NOTHING.                        The value to live?', "Shinji:         No don't I have. I hate myself.                        THUS,", 'Shinji:         Now, everybody hates me.                Probably, people hate me.', 'Shinji:         But, I am praised.                I am praised when I pilot Eva.                I was praised.                        So, happy.', 'Shinji:         I was praised by people!                But, not happy.', "Shinji:         It's OK. I've had nothing from the begining.                I've been learning cello, but results nothing.", "Shinji:         Because it's all of me.", "Shinji:         Blue sky. Something warm, something not used to,                something horrible. something useless. I don't like that.", 'Shinji:         What I fear is,                        Rejection', 'Shinji:         Before that, I need. I need my value.                In order to be appreciated, in order not to be                 deserted,                        I need my VALUE.', 'Shinji:         Then what am I?                        Where am I?', 'Shinji:         What the hell am I?                        So, needs the blockade of mind.', "Shinji:         What? It's me. The shape that I show to others,                the symbol representing me.                This, and this, and this all these are the representation                of me. Nothing but the things that make others cognize me.                What am I? This is me? The true me? The false me?", "Shinji:         Let's see. My clothes, my shoes, my room.                Those are part of myself.", "Shinji:         The thing that I think myself is me.                I am nothing but myself.                Yet, I don't understand. Where am I?                What am I? What am I?                Nobody understands me.", "Shinji:         But still I don't have myself, so I don't understand myself.                There's no way to take care of myself.                        You are unstable.", 'Shinji:         This is the world with nothing, the space with nothing,                the world with nothing.                The world with nothing but me.                I am getting  less understand myself.                I feel as if I am going to disappear.                My existence is fading away.                        Why?', 'Shinji:         My shape?                        My image.', 'Shinji:         Because there are others, I can exist.                If alone, I am always alone at anywhere.                The world is entirely by my ..', "Shinji:         Yes. I am I. Yet, it's true that others form the shape                of my mind.", "Shinji:         I've got it. This is also a world.                The possiblity within me.                The me at the moment is not always the me as I am.                There are many myselves.                Yes. There must be the me who is not the Eva pilot.", 'Shinji:         The real world might not always be bad.                Yet, I hate myself. ', 'Shinji:         I hate myself.                But, I might be able to love myself.                I might be allowed to stay here.                Yes. I am nothing but I.                I am I. I wish to be I.                I wish to stay here as do I.                I can stay here as do I!', 'Shinji:         Thank you!                        Thank you, my father.                        Good  bye, my mother.                        And to the all children,                        Congratulations!', 'Shiji: Aim the target in the center and switch, aim the target in the   center and switch, ...... ', "Shiji:  You say it is the target,         but aren't there a person in there?        A kid of the same age.        An entry plug.  There Is a person inside of it.        Grrrrrrr.", "Shinji' : Hey, you run away again.        No one  can live on with linking things one enjoys like         the rosary.        Particularly, I cannot.        ", "Shinji ' : I am you.          One has another self inside within oneself.          The Self is always consisted of two selves.", "Shinji ' : The self who's actually watched by others and          the self who wathces itself.         IKARI Shinji in your mind.         IKARI Shinji in KATSURAGI Misato's mind.         IKARI Shinji in Souryuu Asuka's mind.         IKARI Shinji in AYANAMI Rei's mind.         IKARI Shinji in IKARI Gendou's mind.        Any IKARI Shinji is differnt from each other,        but each of them is true IKARI Shinji.        You're afraid of IKARI Shinji in other's mind.        ", "Shinji ' : Unless you continue to think you may not change yourself,         you can't live on.         ", 'Shinji&amp;Asuka: This is forced by Misato-san, who insists that Japanese should        begin with form.']</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D115" t="n">
-        <v>3816</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="116">
